--- a/test_result_baidu.xlsx
+++ b/test_result_baidu.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="with wake words" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -979,6 +979,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1053,14 +1059,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,13 +1358,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="36" customWidth="1"/>
+    <col min="1" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="36" style="13" customWidth="1"/>
+    <col min="4" max="12" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1441,21 +1457,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1464,7 +1480,7 @@
       <c r="B13" s="3">
         <v>0.25</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="14">
         <v>0.5</v>
       </c>
       <c r="D13" s="3">
@@ -1502,7 +1518,7 @@
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1540,7 +1556,7 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1578,7 +1594,7 @@
       <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1616,7 +1632,7 @@
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1654,7 +1670,7 @@
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1692,7 +1708,7 @@
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1730,7 +1746,7 @@
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1768,7 +1784,7 @@
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1806,7 +1822,7 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1844,7 +1860,7 @@
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1875,21 +1891,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
@@ -1898,7 +1914,7 @@
       <c r="B25" s="3">
         <v>0.25</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="14">
         <v>0.5</v>
       </c>
       <c r="D25" s="3">
@@ -1936,7 +1952,7 @@
       <c r="B26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1974,7 +1990,7 @@
       <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2012,7 +2028,7 @@
       <c r="B28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2050,7 +2066,7 @@
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2088,7 +2104,7 @@
       <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2126,7 +2142,7 @@
       <c r="B31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2164,7 +2180,7 @@
       <c r="B32" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="15" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2202,7 +2218,7 @@
       <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="15" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2240,7 +2256,7 @@
       <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2278,7 +2294,7 @@
       <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -2309,21 +2325,21 @@
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -2332,7 +2348,7 @@
       <c r="B37" s="3">
         <v>0.25</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="14">
         <v>0.5</v>
       </c>
       <c r="D37" s="3">
@@ -2370,7 +2386,7 @@
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="15" t="s">
         <v>152</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2408,7 +2424,7 @@
       <c r="B39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2446,7 +2462,7 @@
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="15" t="s">
         <v>153</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -2484,7 +2500,7 @@
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -2522,7 +2538,7 @@
       <c r="B42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="15" t="s">
         <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2560,7 +2576,7 @@
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -2598,7 +2614,7 @@
       <c r="B44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="15" t="s">
         <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2636,7 +2652,7 @@
       <c r="B45" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -2674,7 +2690,7 @@
       <c r="B46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="15" t="s">
         <v>156</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -2712,7 +2728,7 @@
       <c r="B47" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -2759,11 +2775,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:L24"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="D10" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="36" style="13"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -2853,21 +2872,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -2879,7 +2898,7 @@
       <c r="C13" s="3">
         <v>0.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>0.75</v>
       </c>
       <c r="E13" s="3">
@@ -2917,7 +2936,7 @@
       <c r="C14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="15" t="s">
         <v>192</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2955,7 +2974,7 @@
       <c r="C15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="15" t="s">
         <v>216</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2993,7 +3012,7 @@
       <c r="C16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -3031,7 +3050,7 @@
       <c r="C17" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="15" t="s">
         <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3069,7 +3088,7 @@
       <c r="C18" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="15" t="s">
         <v>210</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3107,7 +3126,7 @@
       <c r="C19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="15" t="s">
         <v>218</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3145,7 +3164,7 @@
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3183,7 +3202,7 @@
       <c r="C21" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -3221,7 +3240,7 @@
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="15" t="s">
         <v>219</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3259,7 +3278,7 @@
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3288,20 +3307,20 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
@@ -3313,7 +3332,7 @@
       <c r="C25" s="8">
         <v>0.5</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="16">
         <v>0.75</v>
       </c>
       <c r="E25" s="8">
@@ -3351,7 +3370,7 @@
       <c r="C26" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="15" t="s">
         <v>192</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3389,7 +3408,7 @@
       <c r="C27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3427,7 +3446,7 @@
       <c r="C28" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3465,7 +3484,7 @@
       <c r="C29" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="15" t="s">
         <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3503,7 +3522,7 @@
       <c r="C30" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="15" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3541,7 +3560,7 @@
       <c r="C31" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="15" t="s">
         <v>259</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3579,7 +3598,7 @@
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3617,7 +3636,7 @@
       <c r="C33" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3655,7 +3674,7 @@
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3693,7 +3712,7 @@
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3722,20 +3741,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -3747,7 +3766,7 @@
       <c r="C37" s="3">
         <v>0.5</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="14">
         <v>0.75</v>
       </c>
       <c r="E37" s="3">
@@ -3785,7 +3804,7 @@
       <c r="C38" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="15" t="s">
         <v>192</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3823,7 +3842,7 @@
       <c r="C39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="15" t="s">
         <v>193</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3861,7 +3880,7 @@
       <c r="C40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="15" t="s">
         <v>194</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3899,7 +3918,7 @@
       <c r="C41" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="15" t="s">
         <v>195</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3937,7 +3956,7 @@
       <c r="C42" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="15" t="s">
         <v>196</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3975,7 +3994,7 @@
       <c r="C43" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="15" t="s">
         <v>197</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4013,7 +4032,7 @@
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4051,7 +4070,7 @@
       <c r="C45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="15" t="s">
         <v>112</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4089,7 +4108,7 @@
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4127,7 +4146,7 @@
       <c r="C47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
